--- a/scenario/ScenarioPlay1.xlsx
+++ b/scenario/ScenarioPlay1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="184">
   <si>
     <t xml:space="preserve">【場所】</t>
   </si>
@@ -34,6 +34,249 @@
     <t xml:space="preserve">【イラスト】</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">【イラスト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">】</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">【イラスト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">】</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">【イラスト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">】</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">【イラスト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">】</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">【選択肢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">】</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">【選択肢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">】</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">【遷移先】</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">BGM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">】</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">】</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">廊下</t>
   </si>
   <si>
@@ -487,6 +730,329 @@
   </si>
   <si>
     <t xml:space="preserve">で、早速だけど……透、どっちに行く？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">どうしよう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">右に行く</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(114)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">左に行く</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(115)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">右にいこう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">左にいこう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……うん、だいじょうぶだとおもう。いこう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">決まりですね。向かいましょう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">歩いても歩いても同じような廊下ばかり……お嬢様学校とは無駄に広いですね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いや……なんかおかしくね？俺もわかんねぇけど、なんか長すぎるような……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">幽霊のことはわかるけど、構造はわかんない。……ごめん</t>
+  </si>
+  <si>
+    <t xml:space="preserve">謝ることねぇよ、ほんとにこの長さかもしれねぇし！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">にしても疲れたな……ちょっと休憩…</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">パキッ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">……陽希</t>
+  </si>
+  <si>
+    <t xml:space="preserve">俺もしかしてやらかしたか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テケ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">う゛ぁあ゛ぁ゛……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……やばいかも</t>
+  </si>
+  <si>
+    <t xml:space="preserve">やっべぇ悪ぃ！！！透、どうする！？？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">どうしよう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">!?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">逃げる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(130)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">立ち向かう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(131)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">逃げるぞ！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鷹森さん、持ってた鉄パイプ貸してくれ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シラサギ！？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">無茶だ！！相手はバケモンだぞ、透！！！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">みんなは、逃げてくれ……っ！！</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">思いっきりぶん殴る</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">効いてない……っ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ァ゛シ……ヨ゛コセ……！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ガシッ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">っぐ……！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ヨ゛コセ……ヨ゛コセ゛！！！！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……悪い、あとは、任せた…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAME OVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">かかってきなさいこのスットコドッコイめ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逃げんだよ馬鹿！！！！！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…………</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ハァッハァ…………ッ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">もう、大丈夫か……？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">にげきれた、とおもう……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テケテケのような見た目でしたが……めちゃくちゃ足が遅かったような……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いや……足はないから腕が遅いのか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">んなことはいいんだよ……それより、多分俺のせいだ……悪い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">はるきくんは、わるくない。このあとは気をつけていこう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ありがとな……って、透？どうしたんだ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この扉、すごく重くて開かない </t>
+  </si>
+  <si>
+    <t xml:space="preserve">これは……物置でしょうか</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なんか武器でも拾えりゃいいけどなー……それこそ鷹森、壊せねぇの？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">何を言っているんです、割る窓がないでしょうが</t>
+  </si>
+  <si>
+    <t xml:space="preserve">窓限定なんだ……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……きみ、いじれる？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">こより？誰に話しかけているのですか？</t>
   </si>
 </sst>
 </file>
@@ -496,7 +1062,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -523,6 +1089,19 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -568,13 +1147,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -594,10 +1181,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:N163"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="F163" activeCellId="0" sqref="F163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -607,7 +1194,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="74.66"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,455 +1207,482 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>1</v>
@@ -1076,313 +1690,313 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>1</v>
@@ -1390,792 +2004,792 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>1</v>
@@ -2183,282 +2797,282 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>1</v>
@@ -2466,19 +3080,839 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D112" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E113" s="1"/>
+      <c r="J113" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L114" s="0" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D127" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D128" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L130" s="1" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D136" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D137" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D140" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D142" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>5</v>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D147" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D148" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D149" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D150" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D151" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D152" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D153" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D154" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D155" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D156" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D157" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D159" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D160" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D161" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D162" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D163" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/scenario/ScenarioPlay1.xlsx
+++ b/scenario/ScenarioPlay1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="184">
   <si>
     <t xml:space="preserve">【場所】</t>
   </si>
@@ -698,6 +698,21 @@
     <t xml:space="preserve">……がんばる</t>
   </si>
   <si>
+    <t xml:space="preserve">…………</t>
+  </si>
+  <si>
+    <t xml:space="preserve">で、早速だけど……透、どっちに行く？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">どうしよう</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -706,6 +721,87 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">右に行く</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(114)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">左に行く</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(115)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">右にいこう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">左にいこう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……うん、だいじょうぶだとおもう。いこう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">決まりですね。向かいましょう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">歩いても歩いても同じような廊下ばかり……お嬢様学校とは無駄に広いですね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いや……なんかおかしくね？俺もわかんねぇけど、なんか長すぎるような……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">幽霊のことはわかるけど、構造はわかんない。……ごめん</t>
+  </si>
+  <si>
+    <t xml:space="preserve">謝ることねぇよ、ほんとにこの長さかもしれねぇし！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">にしても疲れたな……ちょっと休憩…</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">(</t>
     </r>
     <r>
@@ -715,7 +811,7 @@
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">足音の</t>
+      <t xml:space="preserve">パキッ</t>
     </r>
     <r>
       <rPr>
@@ -725,11 +821,26 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">SE)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">で、早速だけど……透、どっちに行く？</t>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">……陽希</t>
+  </si>
+  <si>
+    <t xml:space="preserve">俺もしかしてやらかしたか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テケ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">う゛ぁあ゛ぁ゛……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……やばいかも</t>
+  </si>
+  <si>
+    <t xml:space="preserve">やっべぇ悪ぃ！！！透、どうする！？？</t>
   </si>
   <si>
     <r>
@@ -745,11 +856,32 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">!?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">逃げる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">?</t>
+      <t xml:space="preserve">(130)</t>
     </r>
   </si>
   <si>
@@ -760,7 +892,44 @@
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">右に行く</t>
+      <t xml:space="preserve">立ち向かう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(131)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">逃げるぞ！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鷹森さん、持ってた鉄パイプ貸してくれ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シラサギ！？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">無茶だ！！相手はバケモンだぞ、透！！！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">みんなは、逃げてくれ……っ！！</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
     </r>
     <r>
       <rPr>
@@ -768,218 +937,21 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">思いっきりぶん殴る</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(114)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">左に行く</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(115)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">右にいこう</t>
-  </si>
-  <si>
-    <t xml:space="preserve">左にいこう</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……うん、だいじょうぶだとおもう。いこう</t>
-  </si>
-  <si>
-    <t xml:space="preserve">決まりですね。向かいましょう</t>
-  </si>
-  <si>
-    <t xml:space="preserve">歩いても歩いても同じような廊下ばかり……お嬢様学校とは無駄に広いですね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">いや……なんかおかしくね？俺もわかんねぇけど、なんか長すぎるような……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">幽霊のことはわかるけど、構造はわかんない。……ごめん</t>
-  </si>
-  <si>
-    <t xml:space="preserve">謝ることねぇよ、ほんとにこの長さかもしれねぇし！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">にしても疲れたな……ちょっと休憩…</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">パキッ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">……陽希</t>
-  </si>
-  <si>
-    <t xml:space="preserve">俺もしかしてやらかしたか？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テケ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">う゛ぁあ゛ぁ゛……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……やばいかも</t>
-  </si>
-  <si>
-    <t xml:space="preserve">やっべぇ悪ぃ！！！透、どうする！？？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">どうしよう</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">!?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">逃げる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(130)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">立ち向かう</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(131)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">逃げるぞ！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鷹森さん、持ってた鉄パイプ貸してくれ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シラサギ！？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">無茶だ！！相手はバケモンだぞ、透！！！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">みんなは、逃げてくれ……っ！！</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">思いっきりぶん殴る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">効いてない……っ</t>
   </si>
   <si>
@@ -1007,9 +979,6 @@
     <t xml:space="preserve">逃げんだよ馬鹿！！！！！！</t>
   </si>
   <si>
-    <t xml:space="preserve">…………</t>
-  </si>
-  <si>
     <t xml:space="preserve">ハァッハァ…………ッ</t>
   </si>
   <si>
@@ -1053,6 +1022,9 @@
   </si>
   <si>
     <t xml:space="preserve">こより？誰に話しかけているのですか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「キミ」の力が必要のようだ</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1034,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1097,12 +1069,6 @@
       <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1156,7 +1122,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1181,10 +1147,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N163"/>
+  <dimension ref="A1:N164"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F163" activeCellId="0" sqref="F163"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B134" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C170" activeCellId="0" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3637,7 +3603,7 @@
         <v>13</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>1</v>
@@ -3651,7 +3617,7 @@
         <v>14</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>1</v>
@@ -3668,7 +3634,7 @@
         <v>14</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>1</v>
@@ -3685,7 +3651,7 @@
         <v>18</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>1</v>
@@ -3702,7 +3668,7 @@
         <v>21</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>1</v>
@@ -3719,7 +3685,7 @@
         <v>21</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>1</v>
@@ -3736,7 +3702,7 @@
         <v>14</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>1</v>
@@ -3753,7 +3719,7 @@
         <v>18</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>1</v>
@@ -3770,7 +3736,7 @@
         <v>14</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>1</v>
@@ -3787,7 +3753,7 @@
         <v>16</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>1</v>
@@ -3804,7 +3770,7 @@
         <v>21</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>1</v>
@@ -3821,7 +3787,7 @@
         <v>14</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>1</v>
@@ -3838,7 +3804,7 @@
         <v>21</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>1</v>
@@ -3855,7 +3821,7 @@
         <v>14</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>1</v>
@@ -3889,7 +3855,7 @@
         <v>18</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>1</v>
@@ -3906,13 +3872,24 @@
         <v>21</v>
       </c>
       <c r="C163" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D163" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D163" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>21</v>
+      <c r="D164" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/scenario/ScenarioPlay1.xlsx
+++ b/scenario/ScenarioPlay1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="184">
   <si>
     <t xml:space="preserve">【場所】</t>
   </si>
@@ -1149,8 +1149,8 @@
   </sheetPr>
   <dimension ref="A1:N164"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B134" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C170" activeCellId="0" sqref="C170"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1961,6 +1961,9 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C47" s="0" t="s">
         <v>63</v>
       </c>

--- a/scenario/ScenarioPlay1.xlsx
+++ b/scenario/ScenarioPlay1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="215">
   <si>
     <t xml:space="preserve">【場所】</t>
   </si>
@@ -1238,8 +1238,8 @@
   </sheetPr>
   <dimension ref="A1:P197"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A173" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C197" activeCellId="0" sqref="C197"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A171" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2038,7 +2038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>15</v>
       </c>
@@ -2055,7 +2055,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C47" s="0" t="s">
         <v>65</v>
       </c>

--- a/scenario/ScenarioPlay1.xlsx
+++ b/scenario/ScenarioPlay1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="231">
   <si>
     <t xml:space="preserve">【場所】</t>
   </si>
@@ -283,96 +283,348 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">学校</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雉真</t>
+  </si>
+  <si>
+    <t xml:space="preserve">結構雰囲気あんなー……　な、透！</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">雉真</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">通常</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">探索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白鷺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……うん</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">白鷺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">通常</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">江永</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふたりとも、こわがってるの？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">まっ……まっさかー！！透はいつもこんな調子だし、俺は別に感想言っただけじゃん？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">雉真</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">焦り</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">鷹森</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中に入らないのですか？調査に来たんでしょう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そ、そうそう！風の噂でこの『私立北高女学院』には怪奇現象が多く発生してるって聞いた</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">雉真</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">笑顔</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">んで、その真相を確かめるべく調査に……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">であればとっとと入りましょう。時間がもったいない</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……っスね！頼もしいっす鷹森さん！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（おい今んとこ鷹森さんが一番こえぇよ！透が呼んだのか！？）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（……違う。江永さんが連れてきた）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（江永がぁー？結構タイプ違うけど、仲いいのかよあいつら？）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">雉真</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">真顔</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">うん。あずさとは幼なじみ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">どあぁあっ後ろいたのか！！てか、幼なじみって……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家が近いの。小学生のころから、ずっといっしょ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">へぇ……なんか意外だな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……ねえ、早く行かないと…</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">白鷺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">驚き</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">まだですかシラサギ、キジマ、それにこよりも！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">はっはいはーーい！！行きます行きます！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">行こうぜ透！俺たちでこの学校の真相を確かめるんだ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">………..</t>
+  </si>
+  <si>
     <t xml:space="preserve">廊下</t>
   </si>
   <si>
-    <t xml:space="preserve">雉真</t>
-  </si>
-  <si>
-    <t xml:space="preserve">結構雰囲気あんなー……　な、透！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白鷺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……うん</t>
-  </si>
-  <si>
-    <t xml:space="preserve">江永</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ふたりとも、こわがってるの？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">まっ……まっさかー！！透はいつもこんな調子だし、俺は別に感想言っただけじゃん？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鷹森</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中に入らないのですか？調査に来たんでしょう</t>
-  </si>
-  <si>
-    <t xml:space="preserve">そ、そうそう！風の噂でこの『私立北高女学院』には怪奇現象が多く発生してるって聞いた</t>
-  </si>
-  <si>
-    <t xml:space="preserve">んで、その真相を確かめるべく調査に……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">であればとっとと入りましょう。時間がもったいない</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……っスね！頼もしいっす鷹森さん！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">（おい今んとこ鷹森さんが一番こえぇよ！透が呼んだのか！？）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">（……違う。江永さんが連れてきた）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">（江永がぁー？結構タイプ違うけど、仲いいのかよあいつら？）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うん。あずさとは幼なじみ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">どあぁあっ後ろいたのか！！てか、幼なじみって……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">家が近いの。小学生のころから、ずっといっしょ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">へぇ……なんか意外だな。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……ねえ、早く行かないと…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">まだですかシラサギ、キジマ、それにこよりも！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">はっはいはーーい！！行きます行きます！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">行こうぜ透！俺たちでこの学校の真相を確かめるんだ！</t>
-  </si>
-  <si>
     <t xml:space="preserve">うぉ～……やっぱお嬢様学校なだけあって広いな</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">雉真</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">考察</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">それで、どう攻めますか？やはり全員分かれて探索を？</t>
   </si>
   <si>
     <t xml:space="preserve">ちょちょ落ち着いてくださいよ！とりあえず周辺を……</t>
   </si>
   <si>
+    <t xml:space="preserve">静止</t>
+  </si>
+  <si>
     <t xml:space="preserve">しらさぎくん</t>
   </si>
   <si>
     <t xml:space="preserve">……？</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">白鷺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">考察</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">なにか、くる</t>
   </si>
   <si>
@@ -413,657 +665,803 @@
     <t xml:space="preserve">これは……？！</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">白鷺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">恐怖</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">開かない</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">探索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">不穏</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">蹴破りましょう。キジマ、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">GO</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">いやいや待てって！！もうちょっと周りも確かめてから……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">だめですか。仕方がない</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うわーっ！！……って…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……割れませんね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">割れないもそうだけどよ、どっから持ってきたんだその鉄パイプ！！それに割れた窓の破片が刺さったらどうすんだよ危ねぇだろ！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">廃校探索に武器の携帯は必須でしょう。なにがおかしい？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……もしかしてこの人、俺が知らなかっただけで相当変な人か……？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あずさは、おもしろい子。話しててたのしい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">だろうな……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ところで、閉じ込められたのなら脱出経路を探すほかありません。どうしますか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……こっち</t>
+  </si>
+  <si>
+    <t xml:space="preserve">こより？そちらになにかあるのですか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">おい２人ともちょっと待てって！追うぞ、透！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">このなか</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この中に、何か？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">入ってみようか</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（……めっちゃ女子トイレなんだけど…  これ、入る流れだな……）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（……クッソーしょうがねぇ！悪く思うなよ！！）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">雉真</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">怒る</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">トイレ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ここに、なにかいる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なにかいる、って……この位置、確実にあの幽霊じゃねぇの？！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あの、とは？もったいぶらずに言いなさい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いやクッソ有名じゃん！！ここはトイレの……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">花子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……ちょっと何ー？うるさすぎなんですけどー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">！？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ほら出た！！！！トイレの花子さ、ん……！？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">え、人間？！ゲロ久々なんだけど！おったまげー！☆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">こちらのえらくハイテンションな御人が、トイレの花子さんだと？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いやさすがに嘘だわ……そんなわけないもん、こんな古いギャルみたいな……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">古い～～～！？この最強にバブリーなゲロマブに向かってよくもそんなこと言えたわね！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">と、おやおやおや～？そこにいるナウいゆるカワちゃんはもしかして……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……わたし？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">…ふ～～～んなるほどね！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">OKOK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">バッチグ～！！あんたらここには来たばっかて感じね！</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">そうです、けど……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">じゃあそこのナウいゆるカワちゃんに、ミステリアスクールさん、マブいメガネ女子に……女子トイレ侵入ボーイ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">触れんな！！しょうがねぇだろ！！！！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あんたらに、この学校から脱出するイロハ、おしえてあげちゃう♡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ほんとに？ありがとう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うんうんさっすが素直な子だね～チョベリグチョベリグ～☆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">で、早速なんだけど……この学校には、アタシみたいに現世に未練タラタラな怪異がうろちょろしてんだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アタシはここでマブダチつくるために地縛霊として怪異化してるんだけど……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中にはアタシみたいに友好的じゃない、怨念を持った幽霊もいるんだよね。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出会ってしまったら、どうすれば</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">白鷺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">怒る</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">そこはキミたちの選択次第だね。生きるも死ぬも、的な？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">死っ……！？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">応戦しましょう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ちょっと黙ってろ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">まぁともかく、気をつけろってコト。ちらっと言ったけど、アタシ地縛霊だから助けにいけないんだよね。だからアタシができる協力はこれくらいかな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ありがとう、花子さん。たすかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いいのいいの！むしろ助けれなくてメンゴ～…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人間って簡単に死ぬじゃない？やっぱりこのくらい助言してあげないと、やってらんないでしょ☆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（透、こいつ優しそうに見えて結構人間のことナメてないか）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（……実際彼女に比べたら僕らは弱いだろうから…）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（…透が言うならしゃあねぇか……）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">それじゃ、アタシはケツカッチンだからドロンさせてもらうわね☆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">何かご予定が？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">んー？久しぶりで話疲れたから、ベッドにバタンキューよん♡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">やっぱナメてんだろ……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ありがとう、またね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">えぇ、せいぜい死なないようにね♡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">………….</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……この中にベッドあるのかな</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人間が入ってはなりませんよ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">俺見て言うなよやらねぇよ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……みんな、今後の探索について話し合わない？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">名案だな。適当に探索して、死んじまったら元も子もねぇ。かといって脱出方法を探さねぇと出らんねぇからな</t>
+  </si>
+  <si>
+    <t xml:space="preserve">こより、あなたは幽霊のいる場所が分かるのですか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うん、なんでかわかんないけど、なんとなく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">敵意があるかどうかも、なんとなくわかってる気がする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">へぇ～すげぇな。それ結構使えるんじゃね？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">追いかけてきてるとか、助けてくれるとか……そのくらいなら、教えられるとおもう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">素晴らしい。こよりがいれば、あとは対応力でなんとかなるでしょう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">言ってるお前が一番不安だけどな……透はどう思う？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いいと思う。こよりの感覚を頼りつつ、その場で対応していこう</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">白鷺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">笑顔</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">今は、それしかない</t>
+  </si>
+  <si>
+    <t xml:space="preserve">だな。じゃあ、気ぃ引き締めて行くか</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……がんばる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…………</t>
+  </si>
+  <si>
+    <t xml:space="preserve">で、早速だけど……透、どっちに行く？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">どうしよう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">右に行く</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(115)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">左に行く</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(116)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">右にいこう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">左にいこう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……うん、だいじょうぶだとおもう。いこう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">決まりですね。向かいましょう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">歩いても歩いても同じような廊下ばかり……お嬢様学校とは無駄に広いですね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いや……なんかおかしくね？俺もわかんねぇけど、なんか長すぎるような……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">幽霊のことはわかるけど、構造はわかんない。……ごめん</t>
+  </si>
+  <si>
+    <t xml:space="preserve">謝ることねぇよ、ほんとにこの長さかもしれねぇし！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">にしても疲れたな……ちょっと休憩…</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">パキッ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">……陽希</t>
+  </si>
+  <si>
+    <t xml:space="preserve">俺もしかしてやらかしたか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テケ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">う゛ぁあ゛ぁ゛……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……やばいかも</t>
+  </si>
+  <si>
+    <t xml:space="preserve">やっべぇ悪ぃ！！！透、どうする！？？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">どうしよう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">!?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">逃げる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(131)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">立ち向かう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(132)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">逃げるぞ！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鷹森さん、持ってた鉄パイプ貸してくれ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シラサギ！？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">無茶だ！！相手はバケモンだぞ、透！！！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">みんなは、逃げてくれ……っ！！</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">思いっきりぶん殴る</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">効いてない……っ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ァ゛シ……ヨ゛コセ……！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ガシッ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">っぐ……！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ヨ゛コセ……ヨ゛コセ゛！！！！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……悪い、あとは、任せた…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAME OVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">かかってきなさいこのスットコドッコイめ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逃げんだよ馬鹿！！！！！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ハァッハァ…………ッ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">もう、大丈夫か……？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">にげきれた、とおもう……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テケテケのような見た目でしたが……めちゃくちゃ足が遅かったような……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いや……足はないから腕が遅いのか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">んなことはいいんだよ……それより、多分俺のせいだ……悪い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">はるきくんは、わるくない。このあとは気をつけていこう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ありがとな……って、透？どうしたんだ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この扉、すごく重くて開かない </t>
+  </si>
+  <si>
+    <t xml:space="preserve">これは……物置でしょうか</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なんか武器でも拾えりゃいいけどなー……それこそ鷹森、壊せねぇの？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">何を言っているんです、割る窓がないでしょうが</t>
+  </si>
+  <si>
+    <t xml:space="preserve">窓限定なんだ……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……きみ、いじれる？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">こより？誰に話しかけているのですか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「キミ」の力が必要のようだ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うぉっ開いた！なんでだ？！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……ありがとう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">誰に話しかけているのですか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あ、これ……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">繧ｭ繝ｼ繧ｦ繧｣ を手に入れた</t>
+  </si>
+  <si>
+    <t xml:space="preserve">武器っぽくはねぇけど……持っていくか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なんか、気になるから……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">まぁいいんじゃね？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">じゃあ、すすもっか</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キーウィ・キウイ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">授業で何を学んだの？</t>
+  </si>
+  <si>
     <t xml:space="preserve">……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">開かない</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">蹴破りましょう。キジマ、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">GO</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">いやいや待てって！！もうちょっと周りも確かめてから……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">だめですか。仕方がない</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うわーっ！！……って…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……割れませんね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">割れないもそうだけどよ、どっから持ってきたんだその鉄パイプ！！それに割れた窓の破片が刺さったらどうすんだよ危ねぇだろ！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">廃校探索に武器の携帯は必須でしょう。なにがおかしい？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……もしかしてこの人、俺が知らなかっただけで相当変な人か……？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">あずさは、おもしろい子。話しててたのしい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">だろうな……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ところで、閉じ込められたのなら脱出経路を探すほかありません。どうしますか？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……こっち</t>
-  </si>
-  <si>
-    <t xml:space="preserve">こより？そちらになにかあるのですか？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">おい２人ともちょっと待てって！追うぞ、透！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">………..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">このなか</t>
-  </si>
-  <si>
-    <t xml:space="preserve">この中に、何か？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">入ってみようか</t>
-  </si>
-  <si>
-    <t xml:space="preserve">（……めっちゃ女子トイレなんだけど…  これ、入る流れだな……）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">（……クッソーしょうがねぇ！悪く思うなよ！！）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">トイレ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ここに、なにかいる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">なにかいる、って……この位置、確実にあの幽霊じゃねぇの？！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">あの、とは？もったいぶらずに言いなさい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">いやクッソ有名じゃん！！ここはトイレの……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">花子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……ちょっと何ー？うるさすぎなんですけどー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">！？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ほら出た！！！！トイレの花子さ、ん……！？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">え、人間？！ゲロ久々なんだけど！おったまげー！☆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">こちらのえらくハイテンションな御人が、トイレの花子さんだと？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">いやさすがに嘘だわ……そんなわけないもん、こんな古いギャルみたいな……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">古い～～～！？この最強にバブリーなゲロマブに向かってよくもそんなこと言えたわね！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">と、おやおやおや～？そこにいるナウいゆるカワちゃんはもしかして……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……わたし？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">…ふ～～～んなるほどね！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">OKOK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">バッチグ～！！あんたらここには来たばっかて感じね！</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">そうです、けど……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">じゃあそこのナウいゆるカワちゃんに、ミステリアスクールさん、マブいメガネ女子に……女子トイレ侵入ボーイ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">触れんな！！しょうがねぇだろ！！！！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">あんたらに、この学校から脱出するイロハ、おしえてあげちゃう♡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ほんとに？ありがとう</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うんうんさっすが素直な子だね～チョベリグチョベリグ～☆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">で、早速なんだけど……この学校には、アタシみたいに現世に未練タラタラな怪異がうろちょろしてんだ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アタシはここでマブダチつくるために地縛霊として怪異化してるんだけど……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中にはアタシみたいに友好的じゃない、怨念を持った幽霊もいるんだよね。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出会ってしまったら、どうすれば</t>
-  </si>
-  <si>
-    <t xml:space="preserve">そこはキミたちの選択次第だね。生きるも死ぬも、的な？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">死っ……！？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">応戦しましょう</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ちょっと黙ってろ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">まぁともかく、気をつけろってコト。ちらっと言ったけど、アタシ地縛霊だから助けにいけないんだよね。だからアタシができる協力はこれくらいかな。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ありがとう、花子さん。たすかった</t>
-  </si>
-  <si>
-    <t xml:space="preserve">いいのいいの！むしろ助けれなくてメンゴ～…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人間って簡単に死ぬじゃない？やっぱりこのくらい助言してあげないと、やってらんないでしょ☆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">（透、こいつ優しそうに見えて結構人間のことナメてないか）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">（……実際彼女に比べたら僕らは弱いだろうから…）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">（…透が言うならしゃあねぇか……）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">それじゃ、アタシはケツカッチンだからドロンさせてもらうわね☆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">何かご予定が？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">んー？久しぶりで話疲れたから、ベッドにバタンキューよん♡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">やっぱナメてんだろ……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ありがとう、またね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">えぇ、せいぜい死なないようにね♡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">………….</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……この中にベッドあるのかな</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人間が入ってはなりませんよ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">俺見て言うなよやらねぇよ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……みんな、今後の探索について話し合わない？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">名案だな。適当に探索して、死んじまったら元も子もねぇ。かといって脱出方法を探さねぇと出らんねぇからな</t>
-  </si>
-  <si>
-    <t xml:space="preserve">こより、あなたは幽霊のいる場所が分かるのですか？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うん、なんでかわかんないけど、なんとなく</t>
-  </si>
-  <si>
-    <t xml:space="preserve">敵意があるかどうかも、なんとなくわかってる気がする</t>
-  </si>
-  <si>
-    <t xml:space="preserve">へぇ～すげぇな。それ結構使えるんじゃね？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">追いかけてきてるとか、助けてくれるとか……そのくらいなら、教えられるとおもう</t>
-  </si>
-  <si>
-    <t xml:space="preserve">素晴らしい。こよりがいれば、あとは対応力でなんとかなるでしょう</t>
-  </si>
-  <si>
-    <t xml:space="preserve">言ってるお前が一番不安だけどな……透はどう思う？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">いいと思う。こよりの感覚を頼りつつ、その場で対応していこう</t>
-  </si>
-  <si>
-    <t xml:space="preserve">今は、それしかない</t>
-  </si>
-  <si>
-    <t xml:space="preserve">だな。じゃあ、気ぃ引き締めて行くか</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……がんばる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…………</t>
-  </si>
-  <si>
-    <t xml:space="preserve">で、早速だけど……透、どっちに行く？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">どうしよう</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">右に行く</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(114)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">左に行く</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(115)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">右にいこう</t>
-  </si>
-  <si>
-    <t xml:space="preserve">左にいこう</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……うん、だいじょうぶだとおもう。いこう</t>
-  </si>
-  <si>
-    <t xml:space="preserve">決まりですね。向かいましょう</t>
-  </si>
-  <si>
-    <t xml:space="preserve">歩いても歩いても同じような廊下ばかり……お嬢様学校とは無駄に広いですね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">いや……なんかおかしくね？俺もわかんねぇけど、なんか長すぎるような……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">幽霊のことはわかるけど、構造はわかんない。……ごめん</t>
-  </si>
-  <si>
-    <t xml:space="preserve">謝ることねぇよ、ほんとにこの長さかもしれねぇし！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">にしても疲れたな……ちょっと休憩…</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">パキッ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">……陽希</t>
-  </si>
-  <si>
-    <t xml:space="preserve">俺もしかしてやらかしたか？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テケ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">う゛ぁあ゛ぁ゛……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……やばいかも</t>
-  </si>
-  <si>
-    <t xml:space="preserve">やっべぇ悪ぃ！！！透、どうする！？？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">どうしよう</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">!?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">逃げる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(130)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">立ち向かう</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(131)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">逃げるぞ！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鷹森さん、持ってた鉄パイプ貸してくれ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シラサギ！？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">無茶だ！！相手はバケモンだぞ、透！！！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">みんなは、逃げてくれ……っ！！</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">思いっきりぶん殴る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">効いてない……っ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ァ゛シ……ヨ゛コセ……！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ガシッ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">っぐ……！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ヨ゛コセ……ヨ゛コセ゛！！！！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……悪い、あとは、任せた…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAME OVER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">かかってきなさいこのスットコドッコイめ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">逃げんだよ馬鹿！！！！！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ハァッハァ…………ッ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">もう、大丈夫か……？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">にげきれた、とおもう……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テケテケのような見た目でしたが……めちゃくちゃ足が遅かったような……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">いや……足はないから腕が遅いのか？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">んなことはいいんだよ……それより、多分俺のせいだ……悪い</t>
-  </si>
-  <si>
-    <t xml:space="preserve">はるきくんは、わるくない。このあとは気をつけていこう</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ありがとな……って、透？どうしたんだ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">この扉、すごく重くて開かない </t>
-  </si>
-  <si>
-    <t xml:space="preserve">これは……物置でしょうか</t>
-  </si>
-  <si>
-    <t xml:space="preserve">なんか武器でも拾えりゃいいけどなー……それこそ鷹森、壊せねぇの？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">何を言っているんです、割る窓がないでしょうが</t>
-  </si>
-  <si>
-    <t xml:space="preserve">窓限定なんだ……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……きみ、いじれる？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">こより？誰に話しかけているのですか？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「キミ」の力が必要のようだ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うぉっ開いた！なんでだ？！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……ありがとう</t>
-  </si>
-  <si>
-    <t xml:space="preserve">誰に話しかけているのですか？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">あ、これ……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">繧ｭ繝ｼ繧ｦ繧｣ を手に入れた</t>
-  </si>
-  <si>
-    <t xml:space="preserve">武器っぽくはねぇけど……持っていくか？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">なんか、気になるから……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">まぁいいんじゃね？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">じゃあ、すすもっか</t>
-  </si>
-  <si>
-    <t xml:space="preserve">キーウィ・キウイ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">授業で何を学んだの？</t>
   </si>
   <si>
     <t xml:space="preserve">……すすもっか</t>
@@ -1127,7 +1525,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1162,6 +1560,12 @@
       <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1206,12 +1610,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1236,10 +1644,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P197"/>
+  <dimension ref="A1:P198"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A171" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R61" activeCellId="0" sqref="R61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1296,7 +1704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1310,24 +1718,27 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1335,16 +1746,16 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1355,13 +1766,13 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1369,19 +1780,19 @@
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,16 +1800,16 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1406,13 +1817,13 @@
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1420,19 +1831,19 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1440,16 +1851,16 @@
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,33 +1868,33 @@
         <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1491,13 +1902,13 @@
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1505,16 +1916,16 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1525,13 +1936,13 @@
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1539,19 +1950,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1559,30 +1970,30 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1590,19 +2001,19 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1610,16 +2021,16 @@
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1627,409 +2038,410 @@
         <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>40</v>
+      <c r="C22" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="O23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>58</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>49</v>
+        <v>27</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>1</v>
@@ -2038,60 +2450,60 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>65</v>
+        <v>48</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E47" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>1</v>
@@ -2102,789 +2514,795 @@
     </row>
     <row r="50" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>23</v>
+        <v>89</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D69" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>114</v>
+        <v>84</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>115</v>
+        <v>84</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>1</v>
@@ -2895,149 +3313,149 @@
     </row>
     <row r="97" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>1</v>
@@ -3048,198 +3466,198 @@
     </row>
     <row r="106" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>131</v>
+        <v>84</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>132</v>
+        <v>84</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>146</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E113" s="1"/>
-      <c r="J113" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>135</v>
+        <v>1</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L114" s="0" t="n">
-        <v>116</v>
+        <v>2</v>
+      </c>
+      <c r="E114" s="1"/>
+      <c r="J114" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>18</v>
+        <v>56</v>
+      </c>
+      <c r="L115" s="0" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>1</v>
@@ -3250,519 +3668,519 @@
     </row>
     <row r="118" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>145</v>
+        <v>48</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>146</v>
+        <v>48</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>160</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>20</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="D129" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D130" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J129" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K129" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D130" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L130" s="1" t="n">
-        <v>145</v>
+      <c r="J130" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>18</v>
+        <v>61</v>
+      </c>
+      <c r="L131" s="1" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C135" s="0" t="s">
-        <v>160</v>
+        <v>48</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>161</v>
+        <v>48</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>175</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>148</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="C138" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="D138" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>148</v>
+        <v>61</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C142" s="0" t="s">
-        <v>167</v>
+        <v>48</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="D142" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D143" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1"/>
     </row>
-    <row r="145" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D145" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>23</v>
-      </c>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1"/>
     </row>
     <row r="146" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C147" s="0" t="s">
-        <v>131</v>
+        <v>48</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>170</v>
+        <v>48</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>146</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>1</v>
@@ -3773,81 +4191,81 @@
     </row>
     <row r="152" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>178</v>
+        <v>16</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>1</v>
@@ -3858,115 +4276,115 @@
     </row>
     <row r="157" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>179</v>
+        <v>20</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>44</v>
+        <v>197</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>183</v>
+        <v>55</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>1</v>
@@ -3975,66 +4393,66 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="M164" s="0" t="n">
-        <v>165</v>
-      </c>
-      <c r="N164" s="0" t="n">
-        <v>174</v>
+        <v>1</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="M165" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="N165" s="0" t="n">
+        <v>175</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>1</v>
@@ -4045,313 +4463,313 @@
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L173" s="0" t="n">
-        <v>180</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>195</v>
+        <v>23</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>195</v>
+        <v>23</v>
+      </c>
+      <c r="L174" s="0" t="n">
+        <v>181</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C175" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>49</v>
+        <v>212</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>49</v>
+        <v>212</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>212</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>197</v>
+        <v>55</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L179" s="0" t="n">
-        <v>180</v>
+        <v>27</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="L180" s="0" t="n">
+        <v>181</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>146</v>
+        <v>219</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>1</v>
@@ -4362,30 +4780,30 @@
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>1</v>
@@ -4396,132 +4814,132 @@
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>1</v>
@@ -4530,14 +4948,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="D197" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D198" s="0" t="n">
         <v>0</v>
       </c>
     </row>

--- a/scenario/ScenarioPlay1.xlsx
+++ b/scenario/ScenarioPlay1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="231">
   <si>
     <t xml:space="preserve">【場所】</t>
   </si>
@@ -586,12 +586,12 @@
     <t xml:space="preserve">ちょちょ落ち着いてくださいよ！とりあえず周辺を……</t>
   </si>
   <si>
+    <t xml:space="preserve">しらさぎくん</t>
+  </si>
+  <si>
     <t xml:space="preserve">静止</t>
   </si>
   <si>
-    <t xml:space="preserve">しらさぎくん</t>
-  </si>
-  <si>
     <t xml:space="preserve">……？</t>
   </si>
   <si>
@@ -713,6 +713,7 @@
         <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">_</t>
     </r>
@@ -1525,7 +1526,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1560,12 +1561,6 @@
       <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1619,7 +1614,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1647,7 +1642,7 @@
   <dimension ref="A1:P198"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R61" activeCellId="0" sqref="R61"/>
+      <selection pane="topLeft" activeCell="P26" activeCellId="0" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1740,6 +1735,9 @@
       <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="O3" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -1757,6 +1755,9 @@
       <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="O4" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -1774,6 +1775,9 @@
       <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="O5" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -1791,6 +1795,9 @@
       <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="O6" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -1808,6 +1815,9 @@
       <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="O7" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -1825,6 +1835,9 @@
       <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="O8" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -1842,6 +1855,9 @@
       <c r="E9" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="O9" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -1859,6 +1875,9 @@
       <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="O10" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -1876,6 +1895,9 @@
       <c r="E11" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="O11" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -1893,6 +1915,9 @@
       <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="O12" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -1910,6 +1935,9 @@
       <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="O13" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -1927,6 +1955,9 @@
       <c r="E14" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="O14" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -1944,6 +1975,9 @@
       <c r="E15" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="O15" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -1961,6 +1995,9 @@
       <c r="E16" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="O16" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
@@ -1978,6 +2015,9 @@
       <c r="E17" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="O17" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -1995,6 +2035,9 @@
       <c r="E18" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="O18" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
@@ -2012,6 +2055,9 @@
       <c r="E19" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="O19" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -2029,6 +2075,9 @@
       <c r="E20" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="O20" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
@@ -2046,6 +2095,9 @@
       <c r="E21" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="O21" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
@@ -2057,6 +2109,9 @@
       <c r="D22" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="O22" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
@@ -2074,7 +2129,9 @@
       <c r="E23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O23" s="2"/>
+      <c r="O23" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
@@ -2092,6 +2149,9 @@
       <c r="E24" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="O24" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
@@ -2110,7 +2170,7 @@
         <v>26</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2121,13 +2181,16 @@
         <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2146,6 +2209,9 @@
       <c r="E27" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="O27" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
@@ -2163,8 +2229,11 @@
       <c r="E28" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O28" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
@@ -2174,8 +2243,11 @@
       <c r="D29" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O29" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>48</v>
       </c>
@@ -2191,6 +2263,9 @@
       <c r="E30" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="O30" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
@@ -2208,6 +2283,9 @@
       <c r="E31" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="O31" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
@@ -2225,6 +2303,9 @@
       <c r="E32" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="O32" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
@@ -2597,7 +2678,7 @@
         <v>23</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/scenario/ScenarioPlay1.xlsx
+++ b/scenario/ScenarioPlay1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="241">
   <si>
     <t xml:space="preserve">【場所】</t>
   </si>
@@ -406,6 +406,36 @@
     <t xml:space="preserve">中に入らないのですか？調査に来たんでしょう</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">鷹森</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">通常</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">そ、そうそう！風の噂でこの『私立北高女学院』には怪奇現象が多く発生してるって聞いた</t>
   </si>
   <si>
@@ -541,7 +571,7 @@
     <t xml:space="preserve">行こうぜ透！俺たちでこの学校の真相を確かめるんだ！</t>
   </si>
   <si>
-    <t xml:space="preserve">………..</t>
+    <t xml:space="preserve">………</t>
   </si>
   <si>
     <t xml:space="preserve">廊下</t>
@@ -583,6 +613,36 @@
     <t xml:space="preserve">それで、どう攻めますか？やはり全員分かれて探索を？</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">鷹森</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">戦闘</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">ちょちょ落ち着いてくださいよ！とりあえず周辺を……</t>
   </si>
   <si>
@@ -672,6 +732,36 @@
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">鷹森</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">驚き</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">白鷺</t>
     </r>
     <r>
@@ -761,6 +851,36 @@
     <t xml:space="preserve">……割れませんね</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">鷹森</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">落胆</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">割れないもそうだけどよ、どっから持ってきたんだその鉄パイプ！！それに割れた窓の破片が刺さったらどうすんだよ危ねぇだろ！！</t>
   </si>
   <si>
@@ -1028,6 +1148,9 @@
     <t xml:space="preserve">人間が入ってはなりませんよ</t>
   </si>
   <si>
+    <t xml:space="preserve">鷹森_落胆</t>
+  </si>
+  <si>
     <t xml:space="preserve">俺見て言うなよやらねぇよ</t>
   </si>
   <si>
@@ -1040,6 +1163,9 @@
     <t xml:space="preserve">こより、あなたは幽霊のいる場所が分かるのですか？</t>
   </si>
   <si>
+    <t xml:space="preserve">鷹森_通常</t>
+  </si>
+  <si>
     <t xml:space="preserve">うん、なんでかわかんないけど、なんとなく</t>
   </si>
   <si>
@@ -1242,6 +1368,9 @@
     <t xml:space="preserve">……やばいかも</t>
   </si>
   <si>
+    <t xml:space="preserve">危機</t>
+  </si>
+  <si>
     <t xml:space="preserve">やっべぇ悪ぃ！！！透、どうする！？？</t>
   </si>
   <si>
@@ -1317,6 +1446,36 @@
     <t xml:space="preserve">シラサギ！？</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">鷹森</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">江永ピンチ</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">無茶だ！！相手はバケモンだぞ、透！！！！</t>
   </si>
   <si>
@@ -1429,10 +1588,16 @@
     <t xml:space="preserve">「キミ」の力が必要のようだ</t>
   </si>
   <si>
+    <t xml:space="preserve">プログラム</t>
+  </si>
+  <si>
     <t xml:space="preserve">うぉっ開いた！なんでだ？！</t>
   </si>
   <si>
     <t xml:space="preserve">……ありがとう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">発見</t>
   </si>
   <si>
     <t xml:space="preserve">誰に話しかけているのですか？</t>
@@ -1526,7 +1691,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1561,6 +1726,12 @@
       <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1605,7 +1776,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1620,6 +1791,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1639,10 +1814,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P198"/>
+  <dimension ref="A1:P199"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P26" activeCellId="0" sqref="P26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F195" activeCellId="0" sqref="F195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1793,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>19</v>
@@ -1807,13 +1982,13 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>19</v>
@@ -1827,7 +2002,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
@@ -1847,13 +2022,13 @@
         <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>19</v>
@@ -1867,13 +2042,13 @@
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>19</v>
@@ -1887,7 +2062,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>1</v>
@@ -1907,7 +2082,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
@@ -1927,13 +2102,13 @@
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>19</v>
@@ -1947,7 +2122,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>1</v>
@@ -1967,7 +2142,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>1</v>
@@ -1987,7 +2162,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1</v>
@@ -2007,13 +2182,13 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>19</v>
@@ -2027,13 +2202,13 @@
         <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>19</v>
@@ -2047,13 +2222,13 @@
         <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>19</v>
@@ -2067,7 +2242,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>1</v>
@@ -2087,13 +2262,13 @@
         <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>19</v>
@@ -2104,7 +2279,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>1</v>
@@ -2115,19 +2290,19 @@
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>19</v>
@@ -2135,19 +2310,19 @@
     </row>
     <row r="24" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>19</v>
@@ -2155,13 +2330,13 @@
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>1</v>
@@ -2175,13 +2350,13 @@
     </row>
     <row r="26" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>1</v>
@@ -2190,38 +2365,38 @@
         <v>23</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>1</v>
@@ -2230,32 +2405,32 @@
         <v>23</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>1</v>
@@ -2264,95 +2439,98 @@
         <v>26</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>1</v>
@@ -2360,33 +2538,39 @@
       <c r="E35" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O35" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O36" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>1</v>
@@ -2394,33 +2578,39 @@
       <c r="E37" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O37" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>1</v>
@@ -2428,33 +2618,39 @@
       <c r="E39" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O39" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>1</v>
@@ -2462,16 +2658,19 @@
       <c r="E41" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O41" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>1</v>
@@ -2479,16 +2678,19 @@
       <c r="E42" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O42" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>1</v>
@@ -2496,33 +2698,39 @@
       <c r="E43" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O43" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>1</v>
@@ -2530,33 +2738,39 @@
       <c r="E45" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O45" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>1</v>
@@ -2564,27 +2778,33 @@
       <c r="E47" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O47" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D48" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O48" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>1</v>
@@ -2592,33 +2812,39 @@
       <c r="E49" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O49" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>1</v>
@@ -2626,16 +2852,19 @@
       <c r="E51" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O51" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>1</v>
@@ -2643,33 +2872,39 @@
       <c r="E52" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O52" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>1</v>
@@ -2678,157 +2913,178 @@
         <v>23</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>27</v>
+        <v>63</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>27</v>
+        <v>63</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>1</v>
@@ -2836,50 +3092,59 @@
       <c r="E63" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O63" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>1</v>
@@ -2887,33 +3152,39 @@
       <c r="E66" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O66" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>1</v>
@@ -2921,33 +3192,39 @@
       <c r="E68" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="O68" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>1</v>
@@ -2955,33 +3232,39 @@
       <c r="E70" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O70" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>1</v>
@@ -2989,118 +3272,139 @@
       <c r="E72" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O72" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>1</v>
@@ -3108,67 +3412,79 @@
       <c r="E79" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="O79" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>87</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>1</v>
@@ -3176,118 +3492,139 @@
       <c r="E83" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O83" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>87</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>1</v>
@@ -3295,50 +3632,59 @@
       <c r="E90" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O90" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>1</v>
@@ -3346,44 +3692,53 @@
       <c r="E93" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O93" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O95" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>1</v>
@@ -3391,33 +3746,39 @@
       <c r="E96" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O96" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>135</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>1</v>
@@ -3425,67 +3786,79 @@
       <c r="E98" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O98" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E99" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O99" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>1</v>
@@ -3493,33 +3866,39 @@
       <c r="E102" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O102" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>1</v>
@@ -3527,16 +3906,19 @@
       <c r="E104" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O104" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>1</v>
@@ -3544,67 +3926,79 @@
       <c r="E105" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O105" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>148</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>1</v>
@@ -3612,33 +4006,39 @@
       <c r="E109" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O109" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>1</v>
@@ -3646,99 +4046,117 @@
       <c r="E111" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O111" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O112" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E114" s="1"/>
       <c r="J114" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>156</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L115" s="0" t="n">
         <v>117</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O115" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>1</v>
@@ -3746,84 +4164,99 @@
       <c r="E117" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O117" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>27</v>
+        <v>140</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="O121" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>1</v>
@@ -3831,61 +4264,73 @@
       <c r="E122" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="123" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O122" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O124" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>1</v>
@@ -3893,33 +4338,39 @@
       <c r="E126" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="O126" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
+      </c>
+      <c r="O127" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>1</v>
@@ -3927,16 +4378,19 @@
       <c r="E128" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="129" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O128" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>1</v>
@@ -3944,87 +4398,102 @@
       <c r="E129" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="O129" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>176</v>
+      </c>
+      <c r="O130" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L131" s="1" t="n">
         <v>146</v>
       </c>
-    </row>
-    <row r="132" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O131" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C133" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="O133" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D133" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="134" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>1</v>
@@ -4032,44 +4501,53 @@
       <c r="E134" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="135" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O134" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>114</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O136" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>1</v>
@@ -4077,96 +4555,117 @@
       <c r="E137" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="138" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O137" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="O139" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="O140" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+      <c r="O141" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="O142" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="O143" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1"/>
@@ -4174,15 +4673,15 @@
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1"/>
     </row>
-    <row r="146" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>1</v>
@@ -4190,16 +4689,19 @@
       <c r="E146" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="O146" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>1</v>
@@ -4207,27 +4709,33 @@
       <c r="E147" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="O147" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O148" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>1</v>
@@ -4235,16 +4743,19 @@
       <c r="E149" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="150" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O149" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>1</v>
@@ -4252,16 +4763,19 @@
       <c r="E150" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="151" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O150" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>1</v>
@@ -4269,84 +4783,99 @@
       <c r="E151" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="152" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O151" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+      <c r="O152" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>27</v>
+        <v>63</v>
+      </c>
+      <c r="O153" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
+      </c>
+      <c r="O154" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="O155" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>1</v>
@@ -4354,84 +4883,99 @@
       <c r="E156" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="157" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O156" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+      <c r="O157" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="O158" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+      <c r="O159" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>1</v>
@@ -4439,16 +4983,19 @@
       <c r="E161" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="162" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O161" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>1</v>
@@ -4456,16 +5003,19 @@
       <c r="E162" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="163" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O162" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>1</v>
@@ -4473,30 +5023,36 @@
       <c r="E163" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="164" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O163" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="O164" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>4</v>
@@ -4507,16 +5063,19 @@
       <c r="N165" s="0" t="n">
         <v>175</v>
       </c>
-    </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O165" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>1</v>
@@ -4524,16 +5083,19 @@
       <c r="E166" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="O166" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>1</v>
@@ -4541,95 +5103,113 @@
       <c r="E167" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O167" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+      <c r="O168" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="O169" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O170" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+      <c r="O171" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+      <c r="O172" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>1</v>
@@ -4637,16 +5217,19 @@
       <c r="E173" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="O173" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>3</v>
@@ -4655,46 +5238,52 @@
         <v>23</v>
       </c>
       <c r="L174" s="0" t="n">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="O174" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O176" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>1</v>
@@ -4702,50 +5291,59 @@
       <c r="E177" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O177" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+      <c r="O178" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>27</v>
+        <v>140</v>
+      </c>
+      <c r="O179" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>3</v>
@@ -4754,307 +5352,380 @@
         <v>23</v>
       </c>
       <c r="L180" s="0" t="n">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="O180" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B181" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D181" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E181" s="1"/>
+      <c r="O181" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C181" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D181" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E181" s="1" t="s">
+      <c r="C182" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D182" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E182" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D182" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O182" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="O183" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>23</v>
+        <v>63</v>
+      </c>
+      <c r="O184" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="O185" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E186" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O186" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D187" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E187" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B187" s="1" t="s">
+      <c r="O187" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C187" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D187" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E187" s="1" t="s">
+      <c r="C188" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D188" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D188" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E188" s="1" t="s">
+      <c r="O188" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D189" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D189" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O189" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="O190" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>148</v>
+      </c>
+      <c r="O191" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E192" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O192" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D193" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E193" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D193" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>27</v>
+      <c r="O193" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E194" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O194" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C195" s="1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>23</v>
+        <v>140</v>
+      </c>
+      <c r="O195" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E196" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O196" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D197" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E197" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B197" s="1" t="s">
+      <c r="O197" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C197" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D197" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C198" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="D198" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O198" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D199" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="O199" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/scenario/ScenarioPlay1.xlsx
+++ b/scenario/ScenarioPlay1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="243">
   <si>
     <t xml:space="preserve">【場所】</t>
   </si>
@@ -523,6 +523,9 @@
     <t xml:space="preserve">どあぁあっ後ろいたのか！！てか、幼なじみって……</t>
   </si>
   <si>
+    <t xml:space="preserve">ツッコミ</t>
+  </si>
+  <si>
     <t xml:space="preserve">家が近いの。小学生のころから、ずっといっしょ。</t>
   </si>
   <si>
@@ -574,6 +577,9 @@
     <t xml:space="preserve">………</t>
   </si>
   <si>
+    <t xml:space="preserve">歩行</t>
+  </si>
+  <si>
     <t xml:space="preserve">廊下</t>
   </si>
   <si>
@@ -818,6 +824,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">チリン</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1148,9 +1157,6 @@
     <t xml:space="preserve">人間が入ってはなりませんよ</t>
   </si>
   <si>
-    <t xml:space="preserve">鷹森_落胆</t>
-  </si>
-  <si>
     <t xml:space="preserve">俺見て言うなよやらねぇよ</t>
   </si>
   <si>
@@ -1163,9 +1169,6 @@
     <t xml:space="preserve">こより、あなたは幽霊のいる場所が分かるのですか？</t>
   </si>
   <si>
-    <t xml:space="preserve">鷹森_通常</t>
-  </si>
-  <si>
     <t xml:space="preserve">うん、なんでかわかんないけど、なんとなく</t>
   </si>
   <si>
@@ -1359,10 +1362,13 @@
     <t xml:space="preserve">俺もしかしてやらかしたか？</t>
   </si>
   <si>
+    <t xml:space="preserve">テケテケ？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">う゛ぁあ゛ぁ゛……</t>
+  </si>
+  <si>
     <t xml:space="preserve">テケ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">う゛ぁあ゛ぁ゛……</t>
   </si>
   <si>
     <t xml:space="preserve">……やばいかも</t>
@@ -1691,7 +1697,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1726,12 +1732,6 @@
       <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1776,7 +1776,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1791,10 +1791,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1816,8 +1812,8 @@
   </sheetPr>
   <dimension ref="A1:P199"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F195" activeCellId="0" sqref="F195"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D2" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P33" activeCellId="0" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2053,6 +2049,7 @@
       <c r="O10" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="P10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -2073,6 +2070,7 @@
       <c r="O11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="P11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -2134,7 +2132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -2152,6 +2150,9 @@
       </c>
       <c r="O15" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2162,7 +2163,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1</v>
@@ -2182,7 +2183,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
@@ -2202,13 +2203,13 @@
         <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>19</v>
@@ -2222,7 +2223,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>1</v>
@@ -2242,7 +2243,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>1</v>
@@ -2262,7 +2263,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>1</v>
@@ -2279,30 +2280,33 @@
         <v>15</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>19</v>
@@ -2310,19 +2314,19 @@
     </row>
     <row r="24" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>19</v>
@@ -2330,13 +2334,13 @@
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>1</v>
@@ -2350,13 +2354,13 @@
     </row>
     <row r="26" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>1</v>
@@ -2365,38 +2369,38 @@
         <v>23</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>1</v>
@@ -2405,32 +2409,32 @@
         <v>23</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>1</v>
@@ -2439,98 +2443,102 @@
         <v>26</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>1</v>
@@ -2539,38 +2547,38 @@
         <v>26</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>1</v>
@@ -2579,38 +2587,38 @@
         <v>26</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>1</v>
@@ -2619,38 +2627,38 @@
         <v>26</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>1</v>
@@ -2659,18 +2667,18 @@
         <v>26</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>1</v>
@@ -2679,18 +2687,18 @@
         <v>23</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>1</v>
@@ -2699,18 +2707,18 @@
         <v>26</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>1</v>
@@ -2719,18 +2727,18 @@
         <v>29</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>1</v>
@@ -2739,18 +2747,18 @@
         <v>23</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>1</v>
@@ -2759,18 +2767,18 @@
         <v>29</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>1</v>
@@ -2779,32 +2787,32 @@
         <v>26</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>1</v>
@@ -2813,18 +2821,18 @@
         <v>23</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>1</v>
@@ -2833,18 +2841,18 @@
         <v>29</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>1</v>
@@ -2853,18 +2861,18 @@
         <v>22</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>1</v>
@@ -2873,38 +2881,38 @@
         <v>26</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>1</v>
@@ -2913,58 +2921,58 @@
         <v>23</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>1</v>
@@ -2973,58 +2981,58 @@
         <v>31</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>1</v>
@@ -3033,58 +3041,58 @@
         <v>31</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>1</v>
@@ -3093,58 +3101,58 @@
         <v>26</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>1</v>
@@ -3153,38 +3161,38 @@
         <v>23</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>1</v>
@@ -3193,38 +3201,38 @@
         <v>22</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>1</v>
@@ -3233,38 +3241,38 @@
         <v>26</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>1</v>
@@ -3273,138 +3281,138 @@
         <v>23</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>1</v>
@@ -3413,78 +3421,78 @@
         <v>26</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>1</v>
@@ -3493,98 +3501,98 @@
         <v>23</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>1</v>
@@ -3593,38 +3601,38 @@
         <v>38</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>1</v>
@@ -3633,38 +3641,38 @@
         <v>27</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>1</v>
@@ -3673,18 +3681,18 @@
         <v>38</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>1</v>
@@ -3693,52 +3701,52 @@
         <v>23</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>1</v>
@@ -3747,38 +3755,38 @@
         <v>23</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>1</v>
@@ -3787,64 +3795,64 @@
         <v>26</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E99" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O99" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="O99" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="O101" s="1" t="s">
         <v>19</v>
@@ -3852,13 +3860,13 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>1</v>
@@ -3872,13 +3880,13 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>1</v>
@@ -3892,13 +3900,13 @@
     </row>
     <row r="104" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>1</v>
@@ -3912,13 +3920,13 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>1</v>
@@ -3932,19 +3940,19 @@
     </row>
     <row r="106" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="O106" s="1" t="s">
         <v>19</v>
@@ -3952,19 +3960,19 @@
     </row>
     <row r="107" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O107" s="1" t="s">
         <v>19</v>
@@ -3972,19 +3980,19 @@
     </row>
     <row r="108" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O108" s="1" t="s">
         <v>19</v>
@@ -3992,13 +4000,13 @@
     </row>
     <row r="109" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>1</v>
@@ -4012,13 +4020,13 @@
     </row>
     <row r="110" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>1</v>
@@ -4032,13 +4040,13 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>1</v>
@@ -4052,10 +4060,10 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>1</v>
@@ -4066,19 +4074,19 @@
     </row>
     <row r="113" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O113" s="1" t="s">
         <v>19</v>
@@ -4086,20 +4094,20 @@
     </row>
     <row r="114" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E114" s="1"/>
       <c r="J114" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O114" s="1" t="s">
         <v>19</v>
@@ -4107,19 +4115,19 @@
     </row>
     <row r="115" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L115" s="0" t="n">
         <v>117</v>
@@ -4130,19 +4138,19 @@
     </row>
     <row r="116" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O116" s="1" t="s">
         <v>19</v>
@@ -4150,13 +4158,13 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>1</v>
@@ -4170,19 +4178,19 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O118" s="1" t="s">
         <v>19</v>
@@ -4190,19 +4198,19 @@
     </row>
     <row r="119" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="O119" s="1" t="s">
         <v>19</v>
@@ -4210,19 +4218,19 @@
     </row>
     <row r="120" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O120" s="1" t="s">
         <v>19</v>
@@ -4230,13 +4238,13 @@
     </row>
     <row r="121" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>1</v>
@@ -4250,13 +4258,13 @@
     </row>
     <row r="122" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>1</v>
@@ -4270,13 +4278,13 @@
     </row>
     <row r="123" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>1</v>
@@ -4285,52 +4293,52 @@
         <v>38</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>1</v>
@@ -4339,38 +4347,38 @@
         <v>26</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>1</v>
@@ -4379,18 +4387,18 @@
         <v>23</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>1</v>
@@ -4399,101 +4407,101 @@
         <v>26</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L131" s="1" t="n">
         <v>146</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>1</v>
@@ -4502,52 +4510,52 @@
         <v>26</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>1</v>
@@ -4556,115 +4564,115 @@
         <v>23</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>0</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4675,13 +4683,13 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>1</v>
@@ -4690,18 +4698,18 @@
         <v>27</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>1</v>
@@ -4710,32 +4718,32 @@
         <v>26</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>1</v>
@@ -4744,18 +4752,18 @@
         <v>26</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>1</v>
@@ -4764,18 +4772,18 @@
         <v>26</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>1</v>
@@ -4784,78 +4792,78 @@
         <v>23</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O153" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O154" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>1</v>
@@ -4864,18 +4872,18 @@
         <v>23</v>
       </c>
       <c r="O155" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>1</v>
@@ -4884,38 +4892,38 @@
         <v>18</v>
       </c>
       <c r="O156" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>1</v>
@@ -4924,58 +4932,58 @@
         <v>29</v>
       </c>
       <c r="O158" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O159" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O160" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>1</v>
@@ -4984,18 +4992,18 @@
         <v>26</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>1</v>
@@ -5004,18 +5012,18 @@
         <v>23</v>
       </c>
       <c r="O162" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>1</v>
@@ -5024,18 +5032,18 @@
         <v>23</v>
       </c>
       <c r="O163" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>1</v>
@@ -5044,15 +5052,15 @@
         <v>29</v>
       </c>
       <c r="O164" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>4</v>
@@ -5064,18 +5072,18 @@
         <v>175</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>1</v>
@@ -5084,18 +5092,18 @@
         <v>26</v>
       </c>
       <c r="O166" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>1</v>
@@ -5104,112 +5112,112 @@
         <v>23</v>
       </c>
       <c r="O167" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="O168" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C169" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D169" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O169" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="D169" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O169" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O170" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O171" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O172" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>1</v>
@@ -5218,18 +5226,18 @@
         <v>18</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>3</v>
@@ -5241,49 +5249,49 @@
         <v>182</v>
       </c>
       <c r="O174" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O176" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>1</v>
@@ -5292,58 +5300,58 @@
         <v>26</v>
       </c>
       <c r="O177" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O178" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="O179" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>3</v>
@@ -5355,34 +5363,34 @@
         <v>182</v>
       </c>
       <c r="O180" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B181" s="1"/>
-      <c r="C181" s="4" t="s">
-        <v>222</v>
+      <c r="C181" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E181" s="1"/>
       <c r="O181" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>1</v>
@@ -5396,13 +5404,13 @@
     </row>
     <row r="183" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>1</v>
@@ -5416,19 +5424,19 @@
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>19</v>
@@ -5436,13 +5444,13 @@
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>1</v>
@@ -5456,13 +5464,13 @@
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>1</v>
@@ -5476,13 +5484,13 @@
     </row>
     <row r="187" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>1</v>
@@ -5496,13 +5504,13 @@
     </row>
     <row r="188" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>1</v>
@@ -5516,13 +5524,13 @@
     </row>
     <row r="189" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>1</v>
@@ -5536,13 +5544,13 @@
     </row>
     <row r="190" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>1</v>
@@ -5556,19 +5564,19 @@
     </row>
     <row r="191" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>19</v>
@@ -5576,13 +5584,13 @@
     </row>
     <row r="192" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>1</v>
@@ -5596,13 +5604,13 @@
     </row>
     <row r="193" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>1</v>
@@ -5616,19 +5624,19 @@
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>19</v>
@@ -5636,19 +5644,19 @@
     </row>
     <row r="195" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>19</v>
@@ -5656,13 +5664,13 @@
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>1</v>
@@ -5676,13 +5684,13 @@
     </row>
     <row r="197" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>1</v>
@@ -5696,19 +5704,19 @@
     </row>
     <row r="198" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>19</v>
@@ -5716,10 +5724,10 @@
     </row>
     <row r="199" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>0</v>

--- a/scenario/ScenarioPlay1.xlsx
+++ b/scenario/ScenarioPlay1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="257">
   <si>
     <t xml:space="preserve">【場所】</t>
   </si>
@@ -889,7 +889,7 @@
     <t xml:space="preserve">うわーっ！！……って…</t>
   </si>
   <si>
-    <t xml:space="preserve">打撃</t>
+    <t xml:space="preserve">打撃鷹森</t>
   </si>
   <si>
     <t xml:space="preserve">……割れませんね</t>
@@ -1484,6 +1484,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">パキッ</t>
+  </si>
+  <si>
     <t xml:space="preserve">……陽希</t>
   </si>
   <si>
@@ -1646,11 +1649,101 @@
     <t xml:space="preserve">みんなは、逃げてくれ……っ！！</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
+    <t xml:space="preserve">ドカッ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">打撃白鷺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">効いてない……っ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ァ゛シ……ヨ゛コセ……！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ガシッ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">っぐ……！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ヨ゛コセ……ヨ゛コセ゛！！！！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……悪い、あとは、任せた…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAME OVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">倒れる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">かかってきなさいこのスットコドッコイめ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逃げんだよ馬鹿！！！！！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ハァッハァ…………ッ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">もう、大丈夫か……？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">にげきれた、とおもう……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テケテケのような見た目でしたが……めちゃくちゃ足が遅かったような……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いや……足はないから腕が遅いのか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">んなことはいいんだよ……それより、多分俺のせいだ……悪い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">はるきくんは、わるくない。このあとは気をつけていこう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ありがとな……って、透？どうしたんだ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この扉、すごく重くて開かない </t>
+  </si>
+  <si>
+    <t xml:space="preserve">これは……物置でしょうか</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なんか武器でも拾えりゃいいけどなー……それこそ鷹森、壊せねぇの？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">何を言っているんです、割る窓がないでしょうが</t>
+  </si>
+  <si>
+    <t xml:space="preserve">窓限定なんだ……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……きみ、いじれる？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">こより？誰に話しかけているのですか？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">「キミ」の力が必要のようだ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
@@ -1663,13 +1756,13 @@
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">思いっきりぶん殴る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
+      <t xml:space="preserve">説明：ファイルをダウンロード後、プログラムの間違いを正してアップロードしましょう。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
@@ -1677,90 +1770,15 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">効いてない……っ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ァ゛シ……ヨ゛コセ……！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ガシッ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">っぐ……！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ヨ゛コセ……ヨ゛コセ゛！！！！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……悪い、あとは、任せた…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAME OVER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">倒れる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">かかってきなさいこのスットコドッコイめ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">逃げんだよ馬鹿！！！！！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ハァッハァ…………ッ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">もう、大丈夫か……？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">にげきれた、とおもう……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テケテケのような見た目でしたが……めちゃくちゃ足が遅かったような……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">いや……足はないから腕が遅いのか？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">んなことはいいんだよ……それより、多分俺のせいだ……悪い</t>
-  </si>
-  <si>
-    <t xml:space="preserve">はるきくんは、わるくない。このあとは気をつけていこう</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ありがとな……って、透？どうしたんだ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">この扉、すごく重くて開かない </t>
-  </si>
-  <si>
-    <t xml:space="preserve">これは……物置でしょうか</t>
-  </si>
-  <si>
-    <t xml:space="preserve">なんか武器でも拾えりゃいいけどなー……それこそ鷹森、壊せねぇの？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">何を言っているんです、割る窓がないでしょうが</t>
-  </si>
-  <si>
-    <t xml:space="preserve">窓限定なんだ……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……きみ、いじれる？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">こより？誰に話しかけているのですか？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「キミ」の力が必要のようだ</t>
-  </si>
-  <si>
     <t xml:space="preserve">プログラム</t>
   </si>
   <si>
     <t xml:space="preserve">うぉっ開いた！なんでだ？！</t>
   </si>
   <si>
+    <t xml:space="preserve">ドアオープン</t>
+  </si>
+  <si>
     <t xml:space="preserve">……ありがとう</t>
   </si>
   <si>
@@ -1774,6 +1792,9 @@
   </si>
   <si>
     <t xml:space="preserve">繧ｭ繝ｼ繧ｦ繧｣ を手に入れた</t>
+  </si>
+  <si>
+    <t xml:space="preserve">発見効果音</t>
   </si>
   <si>
     <t xml:space="preserve">武器っぽくはねぇけど……持っていくか？</t>
@@ -1976,8 +1997,8 @@
   </sheetPr>
   <dimension ref="A1:P199"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D182" activeCellId="0" sqref="D182"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E151" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L172" activeCellId="0" sqref="L172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4480,6 +4501,9 @@
       <c r="O124" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="P124" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
@@ -4489,7 +4513,7 @@
         <v>20</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>1</v>
@@ -4509,7 +4533,7 @@
         <v>16</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>1</v>
@@ -4526,16 +4550,16 @@
         <v>52</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O127" s="1" t="s">
         <v>59</v>
@@ -4549,16 +4573,16 @@
         <v>23</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4569,7 +4593,7 @@
         <v>16</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>1</v>
@@ -4578,7 +4602,7 @@
         <v>27</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4586,19 +4610,19 @@
         <v>52</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4609,7 +4633,7 @@
         <v>20</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>3</v>
@@ -4621,7 +4645,7 @@
         <v>146</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4632,7 +4656,7 @@
         <v>20</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>1</v>
@@ -4641,7 +4665,7 @@
         <v>122</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4652,16 +4676,16 @@
         <v>28</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4672,7 +4696,7 @@
         <v>16</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>1</v>
@@ -4681,7 +4705,7 @@
         <v>27</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4692,7 +4716,7 @@
         <v>20</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>1</v>
@@ -4701,21 +4725,24 @@
         <v>122</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C136" s="0" t="s">
-        <v>193</v>
+      <c r="C136" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="P136" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4726,16 +4753,16 @@
         <v>23</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4743,19 +4770,19 @@
         <v>52</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4763,13 +4790,13 @@
         <v>52</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4780,7 +4807,7 @@
         <v>20</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>1</v>
@@ -4789,7 +4816,7 @@
         <v>68</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4797,19 +4824,19 @@
         <v>52</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4820,7 +4847,7 @@
         <v>20</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>1</v>
@@ -4837,7 +4864,7 @@
         <v>52</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>0</v>
@@ -4846,7 +4873,7 @@
         <v>59</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4863,7 +4890,7 @@
         <v>28</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>1</v>
@@ -4872,7 +4899,7 @@
         <v>56</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4883,7 +4910,7 @@
         <v>16</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>1</v>
@@ -4892,7 +4919,7 @@
         <v>27</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4906,7 +4933,7 @@
         <v>1</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4917,7 +4944,7 @@
         <v>16</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>1</v>
@@ -4937,7 +4964,7 @@
         <v>16</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>1</v>
@@ -4957,13 +4984,13 @@
         <v>23</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O151" s="1" t="s">
         <v>59</v>
@@ -4977,7 +5004,7 @@
         <v>28</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>1</v>
@@ -4997,7 +5024,7 @@
         <v>28</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>1</v>
@@ -5017,7 +5044,7 @@
         <v>16</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>1</v>
@@ -5037,7 +5064,7 @@
         <v>23</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>1</v>
@@ -5057,7 +5084,7 @@
         <v>16</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>1</v>
@@ -5077,7 +5104,7 @@
         <v>20</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>1</v>
@@ -5097,7 +5124,7 @@
         <v>28</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>1</v>
@@ -5117,7 +5144,7 @@
         <v>16</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>1</v>
@@ -5137,7 +5164,7 @@
         <v>28</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>1</v>
@@ -5157,7 +5184,7 @@
         <v>16</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>1</v>
@@ -5197,7 +5224,7 @@
         <v>23</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>1</v>
@@ -5217,7 +5244,7 @@
         <v>28</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>1</v>
@@ -5234,7 +5261,7 @@
         <v>52</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>4</v>
@@ -5246,7 +5273,7 @@
         <v>175</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5257,7 +5284,7 @@
         <v>16</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>1</v>
@@ -5268,6 +5295,9 @@
       <c r="O166" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="P166" s="1" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
@@ -5277,7 +5307,7 @@
         <v>23</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>1</v>
@@ -5286,7 +5316,7 @@
         <v>41</v>
       </c>
       <c r="O167" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5297,7 +5327,7 @@
         <v>28</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>1</v>
@@ -5306,7 +5336,7 @@
         <v>30</v>
       </c>
       <c r="O168" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5317,7 +5347,7 @@
         <v>20</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>1</v>
@@ -5326,7 +5356,7 @@
         <v>46</v>
       </c>
       <c r="O169" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5334,13 +5364,16 @@
         <v>52</v>
       </c>
       <c r="C170" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D170" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O170" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D170" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O170" s="1" t="s">
-        <v>223</v>
+      <c r="P170" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5351,7 +5384,7 @@
         <v>16</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>1</v>
@@ -5360,7 +5393,7 @@
         <v>54</v>
       </c>
       <c r="O171" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5371,7 +5404,7 @@
         <v>20</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>1</v>
@@ -5380,7 +5413,7 @@
         <v>61</v>
       </c>
       <c r="O172" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5391,7 +5424,7 @@
         <v>16</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>1</v>
@@ -5400,7 +5433,7 @@
         <v>18</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5411,7 +5444,7 @@
         <v>23</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>3</v>
@@ -5423,7 +5456,7 @@
         <v>182</v>
       </c>
       <c r="O174" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5431,19 +5464,19 @@
         <v>52</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="O175" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5451,13 +5484,13 @@
         <v>52</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O176" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5468,7 +5501,7 @@
         <v>16</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>1</v>
@@ -5488,7 +5521,7 @@
         <v>20</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>1</v>
@@ -5528,7 +5561,7 @@
         <v>23</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>3</v>
@@ -5549,7 +5582,7 @@
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>1</v>
@@ -5567,7 +5600,7 @@
         <v>20</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>1</v>
@@ -5587,7 +5620,7 @@
         <v>16</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>1</v>
@@ -5607,7 +5640,7 @@
         <v>28</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>1</v>
@@ -5627,7 +5660,7 @@
         <v>23</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>1</v>
@@ -5647,7 +5680,7 @@
         <v>23</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>1</v>
@@ -5667,7 +5700,7 @@
         <v>16</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>1</v>
@@ -5687,7 +5720,7 @@
         <v>20</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>1</v>
@@ -5707,7 +5740,7 @@
         <v>16</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>1</v>
@@ -5727,7 +5760,7 @@
         <v>20</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>1</v>
@@ -5747,7 +5780,7 @@
         <v>20</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>1</v>
@@ -5767,7 +5800,7 @@
         <v>16</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>1</v>
@@ -5787,7 +5820,7 @@
         <v>16</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>1</v>
@@ -5807,7 +5840,7 @@
         <v>28</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>1</v>
@@ -5827,7 +5860,7 @@
         <v>28</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>1</v>
@@ -5847,7 +5880,7 @@
         <v>23</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>1</v>
@@ -5867,7 +5900,7 @@
         <v>16</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>1</v>
@@ -5887,7 +5920,7 @@
         <v>20</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>1</v>
@@ -5904,7 +5937,7 @@
         <v>52</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>0</v>

--- a/scenario/ScenarioPlay1.xlsx
+++ b/scenario/ScenarioPlay1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="257">
   <si>
     <t xml:space="preserve">【場所】</t>
   </si>
@@ -1997,8 +1997,8 @@
   </sheetPr>
   <dimension ref="A1:P199"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E151" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L172" activeCellId="0" sqref="L172"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C43" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G88" activeCellId="0" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2813,6 +2813,9 @@
         <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O39" s="1" t="s">
@@ -2834,6 +2837,9 @@
       </c>
       <c r="E40" s="1" t="s">
         <v>56</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>70</v>
@@ -3173,7 +3179,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>94</v>
       </c>
@@ -3207,6 +3213,9 @@
         <v>1</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>46</v>
       </c>
       <c r="O59" s="1" t="s">
@@ -3227,13 +3236,16 @@
         <v>1</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>32</v>
       </c>
       <c r="O60" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>94</v>
       </c>
@@ -3249,11 +3261,14 @@
       <c r="E61" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="F61" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="O61" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>94</v>
       </c>
@@ -3267,13 +3282,16 @@
         <v>1</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>67</v>
       </c>
       <c r="O62" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>94</v>
       </c>
@@ -3287,13 +3305,16 @@
         <v>1</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O63" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>94</v>
       </c>
@@ -3309,11 +3330,14 @@
       <c r="E64" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="F64" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="O64" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>94</v>
       </c>
@@ -3329,11 +3353,14 @@
       <c r="E65" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="F65" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="O65" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>94</v>
       </c>
@@ -3347,6 +3374,9 @@
         <v>1</v>
       </c>
       <c r="E66" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>25</v>
       </c>
       <c r="O66" s="1" t="s">
@@ -3369,6 +3399,9 @@
       <c r="E67" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="F67" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="O67" s="1" t="s">
         <v>99</v>
       </c>
@@ -3387,6 +3420,9 @@
         <v>1</v>
       </c>
       <c r="E68" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>22</v>
       </c>
       <c r="O68" s="1" t="s">
@@ -3409,11 +3445,14 @@
       <c r="E69" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="F69" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="O69" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>94</v>
       </c>
@@ -3427,6 +3466,9 @@
         <v>1</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O70" s="1" t="s">
@@ -3449,11 +3491,14 @@
       <c r="E71" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="F71" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="O71" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>94</v>
       </c>
@@ -3467,6 +3512,9 @@
         <v>1</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>41</v>
       </c>
       <c r="O72" s="1" t="s">
@@ -3489,11 +3537,14 @@
       <c r="E73" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="F73" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="O73" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>94</v>
       </c>
@@ -3509,11 +3560,12 @@
       <c r="E74" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="F74" s="1"/>
       <c r="O74" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>94</v>
       </c>
@@ -3529,11 +3581,12 @@
       <c r="E75" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="F75" s="1"/>
       <c r="O75" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>94</v>
       </c>
@@ -3549,11 +3602,12 @@
       <c r="E76" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="F76" s="1"/>
       <c r="O76" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>94</v>
       </c>
@@ -3567,13 +3621,16 @@
         <v>1</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>122</v>
       </c>
       <c r="O77" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>94</v>
       </c>
@@ -3589,11 +3646,14 @@
       <c r="E78" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="F78" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="O78" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>94</v>
       </c>
@@ -3607,13 +3667,16 @@
         <v>1</v>
       </c>
       <c r="E79" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O79" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>94</v>
       </c>
@@ -3627,13 +3690,16 @@
         <v>1</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>56</v>
       </c>
       <c r="O80" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>94</v>
       </c>
@@ -3647,13 +3713,16 @@
         <v>1</v>
       </c>
       <c r="E81" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>93</v>
       </c>
       <c r="O81" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
@@ -3669,11 +3738,14 @@
       <c r="E82" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="F82" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="O82" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>94</v>
       </c>
@@ -3687,13 +3759,16 @@
         <v>1</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>41</v>
       </c>
       <c r="O83" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>94</v>
       </c>
@@ -3709,11 +3784,14 @@
       <c r="E84" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="F84" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="O84" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>94</v>
       </c>
@@ -3729,6 +3807,7 @@
       <c r="E85" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="F85" s="1"/>
       <c r="O85" s="1" t="s">
         <v>99</v>
       </c>
@@ -3809,11 +3888,12 @@
       <c r="E89" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="F89" s="1"/>
       <c r="O89" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>94</v>
       </c>
@@ -3827,6 +3907,9 @@
         <v>1</v>
       </c>
       <c r="E90" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O90" s="1" t="s">
@@ -3849,11 +3932,14 @@
       <c r="E91" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="F91" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="O91" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>94</v>
       </c>
@@ -3867,13 +3953,16 @@
         <v>1</v>
       </c>
       <c r="E92" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>39</v>
       </c>
       <c r="O92" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>94</v>
       </c>
@@ -3887,13 +3976,16 @@
         <v>1</v>
       </c>
       <c r="E93" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>41</v>
       </c>
       <c r="O93" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>94</v>
       </c>
@@ -3909,6 +4001,7 @@
       <c r="E94" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="F94" s="1"/>
       <c r="O94" s="1" t="s">
         <v>99</v>
       </c>

--- a/scenario/ScenarioPlay1.xlsx
+++ b/scenario/ScenarioPlay1.xlsx
@@ -1997,8 +1997,8 @@
   </sheetPr>
   <dimension ref="A1:P199"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C43" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G88" activeCellId="0" sqref="G88"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C94" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D112" activeCellId="0" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2466,7 +2466,7 @@
         <v>50</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>19</v>
@@ -2993,7 +2993,7 @@
         <v>50</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>70</v>
@@ -4351,7 +4351,7 @@
         <v>160</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O112" s="1" t="s">
         <v>19</v>

--- a/scenario/ScenarioPlay1.xlsx
+++ b/scenario/ScenarioPlay1.xlsx
@@ -1791,13 +1791,13 @@
     <t xml:space="preserve">あ、これ……</t>
   </si>
   <si>
-    <t xml:space="preserve">繧ｭ繝ｼ繧ｦ繧｣ を手に入れた</t>
+    <t xml:space="preserve">鍵を手に入れた</t>
   </si>
   <si>
     <t xml:space="preserve">発見効果音</t>
   </si>
   <si>
-    <t xml:space="preserve">武器っぽくはねぇけど……持っていくか？</t>
+    <t xml:space="preserve">どこの鍵かわかんねぇけど、一応持っていくか？</t>
   </si>
   <si>
     <t xml:space="preserve">なんか、気になるから……</t>
@@ -1997,8 +1997,8 @@
   </sheetPr>
   <dimension ref="A1:P199"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C94" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D112" activeCellId="0" sqref="D112"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A155" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C172" activeCellId="0" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/scenario/ScenarioPlay1.xlsx
+++ b/scenario/ScenarioPlay1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="259">
   <si>
     <t xml:space="preserve">【場所】</t>
   </si>
@@ -283,6 +283,36 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">END</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">】</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">学校</t>
   </si>
   <si>
@@ -1873,6 +1903,9 @@
   </si>
   <si>
     <t xml:space="preserve">【ストーリークリア】二章に続く…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">END</t>
   </si>
 </sst>
 </file>
@@ -1995,10 +2028,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P199"/>
+  <dimension ref="A1:Q199"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A155" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C172" activeCellId="0" sqref="C172"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A166" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P202" activeCellId="0" sqref="P202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2054,2919 +2087,2922 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>5</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="O33" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="O40" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>5</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="F59" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="F62" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F74" s="1"/>
       <c r="O74" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F75" s="1"/>
       <c r="O75" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F76" s="1"/>
       <c r="O76" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D78" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="O78" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D81" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="O81" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F85" s="1"/>
       <c r="O85" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D86" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="O86" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F89" s="1"/>
       <c r="O89" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F94" s="1"/>
       <c r="O94" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>5</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E114" s="1"/>
       <c r="J114" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L115" s="0" t="n">
         <v>117</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P124" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C129" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O129" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="D129" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O129" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L131" s="1" t="n">
         <v>146</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P136" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>0</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4977,384 +5013,384 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O153" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O154" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O155" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O156" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O158" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O159" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O160" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O162" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O163" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O164" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>4</v>
@@ -5366,677 +5402,680 @@
         <v>175</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O166" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P166" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O167" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C168" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D168" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O168" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="D168" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O168" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O169" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O170" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P170" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O171" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O172" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L174" s="0" t="n">
         <v>182</v>
       </c>
       <c r="O174" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C175" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D175" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D175" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="O175" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C176" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="D176" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O176" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="D176" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O176" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O177" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O178" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C179" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D179" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O179" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D179" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O179" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L180" s="0" t="n">
         <v>182</v>
       </c>
       <c r="O180" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E181" s="1"/>
       <c r="O181" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O182" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O183" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O184" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O185" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O186" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O187" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O188" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O189" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O190" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O191" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O192" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O193" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O194" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O195" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O196" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O197" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O198" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>0</v>
       </c>
       <c r="O199" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q199" s="0" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
